--- a/biology/Botanique/Mespilus/Mespilus.xlsx
+++ b/biology/Botanique/Mespilus/Mespilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mespilus est un genre de plantes à fleurs de la famille des Rosaceae et de la sous-famille des Maloideae. Il est parfois considéré comme un sous-genre de Crataegus.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification de Cronquist, le genre contient 2 espèces :
 Mespilus germanica, le néflier commun, synonyme : Pyrus germanica (L.) Hook. f.
 Mespilus canescens J. B. Phipps
-Cependant Mespilus canescens est depuis une étude parue en 2007 [1] classé en tant que ×Crataemespilus canescens (hybride entre Crataegus brachyacantha parent mère et Mespilus germanica parent père), faisant de Mespilus germanica l'unique espèce du genre.
+Cependant Mespilus canescens est depuis une étude parue en 2007  classé en tant que ×Crataemespilus canescens (hybride entre Crataegus brachyacantha parent mère et Mespilus germanica parent père), faisant de Mespilus germanica l'unique espèce du genre.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Ancienne classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans les anciennes classifications des XVIIIe et XIXe siècles, on comptait près de 30 espèces. Par la suite, entre autres grâce aux corrections apportées par  Friedrich Kasimir Medikus et John Lindley, de nombreuses espèces ont été reclassées dans les genres Cotoneaster, Amélanchier, Eriobotrya et Crataegus.
 Mespilus aestivalis Walter → Crataegus aestivalis (Walter) Torr. &amp; A. Gray
@@ -602,9 +618,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 mai 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 mai 2013) :
 Mespilus abortiva
 Mespilus acerifolia
 Mespilus acuminata
@@ -738,9 +756,9 @@
 Mespilus wendlandii
 Mespilus xalapensis
 Mespilus xanthocarpa
-Selon ITIS      (27 mai 2013)[3] :
+Selon ITIS      (27 mai 2013) :
 Mespilus germanica L.
-Selon NCBI  (27 mai 2013)[4] :
+Selon NCBI  (27 mai 2013) :
 Mespilus canescens
 Mespilus germanica</t>
         </is>
